--- a/sessions/data/Part_I/Congressional_Bills/dinamic/Congressional_Bills_n_2.xlsx
+++ b/sessions/data/Part_I/Congressional_Bills/dinamic/Congressional_Bills_n_2.xlsx
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06641/2023-CR</t>
+          <t>Proyecto de Ley 06657/2023-CR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación14/12/2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DEROGA EL DECRETO LEGISLATIVO 1589, DECRETO LEGISLATIVO QUE MODIFICA LOS ARTÍCULOS 283 Y 315 DEL CÓDIGO PENAL, CRIMINALIZANDO EL DERECHO CONSTITUCIONAL A LA PROTESTA</t>
+          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE MODIFICA EL ARTÍCULO 2, NUMERAL 24, LITERAL F) DE LA CONSTITUCIÓN POLÍTICA DEL PERÚ PARA AMPLIAR EL PLAZO DE DETENCIÓN POLICIAL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,29 +493,29 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AutoresCortez Aguirre, Isabel Echeverría Rodríguez, Hamlet Bazán Narro, Sigrid Tesoro ver más...</t>
+          <t>AutoresMuñante Barrios, Alejandro Montoya Manrique, Jorge Carlos Ciccia Vásquez, Miguel Ángel ver más...</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06640/2023-CR</t>
+          <t>Proyecto de Ley 06656/2023-CR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación14/12/2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA LA CREACIÓN DE LA PLATAFORMA NACIONAL DE GESTIÓN DE INFORMACIÓN DE ENFERMEDAS RARAS O HUÉRFANAS (ERH) PARA UN ADECUADO USO DE LOS RECURSOS DISPONIBLES DESTINADOS A LA ATENCIÓN DE PERSONAS QUE PADECEN ESTAS ENFERMEDADES</t>
+          <t>TítuloRESOLUCIÓN LEGISLATIVA DE DESIGNACIÓN DEL SEÑOR PEDRO ALFREDO HERNÁNDEZ CHÁVEZ COMO MAGISTRADO DEL TRIBUNAL CONSTITUCIONAL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPublicada en el Diario Oficial El Peruano</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,24 +525,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AutoresGarcía Correa, Idelso Manuel Camones Soriano, Lady Mercedes Julón Irigoín, Elva Edhit ver más...</t>
+          <t>Autores</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06639/2023-CR</t>
+          <t>Proyecto de Ley 06655/2023-CR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación14/12/2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE CREA LA PLATAFORMA NACIONAL DE GESTIÓN DE INFORMACIÓN DE ENFERMEDADES RARAS O HUÉRFANAS (ERH) PARA UN ADECUADO USO DE LOS RECURSOS DISPONIBLES DESTINADOS A LA ATENCIÓN DE PERSONAS QUE PADECEN ESTAS ENFERMEDADES</t>
+          <t>TítuloLEY QUE CREA EL REGISTRO MUNICIPAL DE PERSONAS QUE REALIZAN EL REPARTO DE PRODUCTOS Y SERVICIOS A DOMICILIO - REMUPRE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -557,24 +557,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AutoresGarcía Correa, Idelso Manuel Trigozo Reátegui, Cheryl Julón Irigoín, Elva Edhit ver más...</t>
+          <t>AutoresGonza Castillo, Américo Mita Alanoca, Isaac Cerrón Rojas, Waldemar José ver más...</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06638/2023-CR</t>
+          <t>Proyecto de Ley 06654/2023-CR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación13/12/2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE RECONOCE DERECHOS DE LA NATURALEZA, LOS ECOSISTEMAS Y LAS ESPECIES</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CONSTRUCCIÓN DE INSTITUTOS ESPECIALIZADOS MATERNO PERINATAL Y DEL NIÑO EN LAS REGIONES</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -589,24 +589,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AutoresRobles Araujo, Silvana Emperatriz Pariona Sinche, Alfredo Echeverría Rodríguez, Hamlet ver más...</t>
+          <t>AutoresPalacios Huamán, Margot Cruz Mamani, Flavio Gonza Castillo, Américo ver más...</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06637/2023-CR</t>
+          <t>Proyecto de Ley 06653/2023-CR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación13/12/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ESTABLECE DE NECESIDAD PÚBLICA LA CONSTRUCCIÓN DEL INSTITUTO DE SALUD DEL NIÑO AMAZÓNICO QUE BRINDARÁ ATENCIÓN ESPECIALIZADA A LOS NIÑOS DE LA AMAZONÍA PERUANA DE LA MACRO REGIÓN ORIENTE</t>
+          <t>TítuloRESOLUCIÓN LEGISLATIVA DEL CONGRESO QUE MODIFICA EL ARTÍCULO 23 DEL REGLAMENTO DEL CONGRESO DE LA REPÚBLICA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,24 +621,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AutoresSaavedra Casternoque, Hitler Azurín Loayza, Alfredo Valer Pinto, Héctor ver más...</t>
+          <t>AutoresFlores Ruiz, Víctor Seferino Alegría García, Arturo Olivos Martínez, Vivian ver más...</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06636/2023-CR</t>
+          <t>Proyecto de Ley 06652/2023-CR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación13/12/2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CREACIÓN, CONSTRUCCIÓN E IMPLEMENTACIÓN DEL HOSPITAL DE DESINTOXICACIÓN NIVEL II E Y LA IMPLEMENTACIÓN DEL LABORATORIO TOXICOLÓGICO, EN LA REGIÓN DE LORETO</t>
+          <t>TítuloLEY QUE ESTABLECE MEDIDAS PARA GARANTIZAR LA PRESTACIÓN REAL Y EFECTIVA DE LOS ARBITRIOS MUNICIPALES QUE PAGAN LOS CONTRIBUYENTES</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -653,24 +653,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AutoresSaavedra Casternoque, Hitler Jerí Oré, José Enrique Azurín Loayza, Alfredo ver más...</t>
+          <t>AutoresFlores Ruiz, Víctor Seferino Barbarán Reyes, Rosangella Andrea Castillo Rivas, Eduardo Enrique ver más...</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06635/2023-CR</t>
+          <t>Proyecto de Ley 06651/2023-CR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación13/12/2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CONSTRUCCIÓN DE UNA VÍA ALTERNA A LA AUTOPISTA PANAMERICANA NORTE, PARA PERMITIR EL INGRESO Y SALIDA SIN PAGO DE PEAJE POR PARTE DE LOS USUARIOS QUE CIRCULAN DENTRO DE LOS DISTRITOS DE LIMA NORTE</t>
+          <t>TítuloLEY QUE FORTALECE LAS UNIDADES DE SOPORTE METABÓLICO NUTRICIONAL EN LOS ESTABLECIMIENTOS DE SALUD</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -685,24 +685,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AutoresSoto Palacios, Wilson Espinoza Vargas, Jhaec Darwin Vergara Mendoza, Elvis Hernán ver más...</t>
+          <t>AutoresLuque Ibarra, Ruth Bazán Narro, Sigrid Tesoro Sánchez Palomino, Roberto Helbert ver más...</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06634/2023-CR</t>
+          <t>Proyecto de Ley 06650/2023-CR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación13/12/2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE CREA LOS APORTES PREVISIONALES INDIVIDUALES CON CARGO AL IMPUESTO A LAS TRANSACCIONES FINANCIERAS POR EL USO DE BILLETERAS ELECTRÓNICAS</t>
+          <t>TítuloLEY PARA PREVENIR LA VIOLENCIA OBSTÉTRICA CONTRA LAS MUJERES CON DISCAPACIDAD SENSORIAL DURANTE EL ESTADO DE GESTACIÓN, PARTO Y POSPARTO, EN LOS ESTABLECIMIENTOS DE SALUD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -717,24 +717,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AutoresJulón Irigoín, Elva Edhit Trigozo Reátegui, Cheryl Camones Soriano, Lady Mercedes ver más...</t>
+          <t>AutoresKamiche Morante, Luis Roberto Sánchez Palomino, Roberto Helbert Bazán Narro, Sigrid Tesoro ver más...</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06633/2023-CR</t>
+          <t>Proyecto de Ley 06649/2023-CR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación13/12/2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE INCORPORA A LOS TRABAJADORES DEL PODER JUDICIAL BAJO EL RÉGIMEN LABORAL DEL DECRETO LEGISLATIVO N° 1057- CONTRATO ADMINISTRATIVO DE SERVICIOS — CAS AL RÉGIMEN LABORAL DEL DECRETO LEGISLATIVO N° 728</t>
+          <t>TítuloLEY DE SEGURIDAD HÍDRICA PARA LA AGRICULTURA SOSTENIBLE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -749,24 +749,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AutoresCamones Soriano, Lady Mercedes Chiabra León, Roberto Enrique García Correa, Idelso Manuel ver más...</t>
+          <t>AutoresTaipe Coronado, María Elizabeth Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06632/2023-CR</t>
+          <t>Proyecto de Ley 06648/2023-CR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación13/12/2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY 29284, LEY PARA EL DESARROLLO TURÍSTICO Y PROMOCIÓN DE LA INVERSIÓN EN INFRAESTRUCTURA TURÍSTICA EN EL DEPARTAMENTO DE TUMBES</t>
+          <t>TítuloLEY QUE ESTABLECE LA DEFINICIÓN DE EMPRESA FAMILIAR</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -781,24 +781,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AutoresZeta Chunga, Cruz Maria Olivos Martínez, Vivian Castillo Rivas, Eduardo Enrique ver más...</t>
+          <t>AutoresAnderson Ramírez, Carlos Antonio</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06631/2023-CR</t>
+          <t>Proyecto de Ley 06647/2023-CR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación13/12/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY N° 27806, LEY DE TRANSPARENCIA Y ACCESO A LA INFORMACIÓN PÚBLICA CON RELACIÓN AL PLAZO ADICIONAL PARA LA ENTREGA DE INFORMACIÓN</t>
+          <t>TítuloLEY QUE SANCIONA EL EVITAR EL CONTROL BIOMETRICO DE INGRESO Y SALIDA AL PAIS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -813,24 +813,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AutoresSánchez Palomino, Roberto Helbert Paredes Piqué, Susel Ana María Bazán Narro, Sigrid Tesoro ver más...</t>
+          <t>AutoresAlva Prieto, María del Carmen Monteza Facho, Silvia María Arriola Tueros, José Alberto ver más...</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06630/2023-CR</t>
+          <t>Proyecto de Ley 06646/2023-CR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación13/12/2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE RECONOCE LOS DERECHOS SOCIOLABORALES EN EL RÉGIMEN LABORAL DEL DECRETO LEGISLATIVO 1057 (CAS)</t>
+          <t>TítuloRESOLUCION LEGISLATIVA QUE MODIFICA LOS LITERALES C), D) Y F) DEL ARTICULO 89° DEL REGLAMENTO DEL CONGRESO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -845,24 +845,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AutoresCerrón Rojas, Waldemar José Palacios Huamán, Margot Cruz Mamani, Flavio ver más...</t>
+          <t>AutoresAlva Prieto, María del Carmen Monteza Facho, Silvia María Arriola Tueros, José Alberto ver más...</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06629/2023-CR</t>
+          <t>Proyecto de Ley 06645/2023-CR</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación13/12/2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY 29284, LEY PARA EL DESARROLLO TURÍSTICO Y PROMOCIÓN DE LA INVERSIÓN EN INFRAESTRUCTURA TURÍSTICA EN EL DEPARTAMENTO DE TUMBES</t>
+          <t>TítuloLEY QUE REGULA LA PROTECCIÓN AL DENUNCIANTE DE HECHOS DE CORRUPCIÓN EN OBRA PÚBLICA Y OTORGA BENEFICIOS</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -877,24 +877,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AutoresVentura Ángel, Héctor José Alegría García, Arturo Juárez Gallegos, Carmen Patricia ver más...</t>
+          <t>AutoresAnderson Ramírez, Carlos Antonio Camones Soriano, Lady Mercedes Zeballos Madariaga, Carlos Javier</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06628/2023-CR</t>
+          <t>Proyecto de Ley 06644/2023-CR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación13/12/2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERES NACIONAL LA CONSTRUCCIÓN DE LA CARRETERA BOCAPANCASITAS- CAPITAN HOYLE EN EL DEPARTAMENTO DE TUMBES PARA FORTALECER EL TURISMO.</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CONSTRUCCIÓN Y AMPLIACIÓN DEL PROYECTO DE IRRIGACIÓN MAGUNCHAL, EN EL DEPARTAMENTO DE AMAZONAS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -909,24 +909,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AutoresVentura Ángel, Héctor José Ramírez García, Tania Estefany Jiménez Heredia, David Julio ver más...</t>
+          <t>AutoresInfantes Castañeda, Mery Eliana Chacón Trujillo, Nilza Merly López Morales, Jeny Luz ver más...</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06627/2023-CR</t>
+          <t>Proyecto de Ley 06643/2023-CR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fecha de Presentación12/12/2023</t>
+          <t>Fecha de Presentación13/12/2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ESTABLECE DE NECESIDAD PÚBLICA LA CONSTRUCCIÓN DEL INSTITUTO DEL NIÑO QUE BRINDARÁ ATENCIÓN ESPECIALIZADA A LA POBLACIÓN DE LA MACRO REGION ORIENTE</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CONSTRUCCIÓN E IMPLEMENTACIÓN DEL NUEVO HOSPITAL REGIONAL DE HUACHO CATEGORÍA III - 1.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -936,19 +936,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ProponenteCongreso-Actualización</t>
+          <t>ProponenteCongreso</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Autores</t>
+          <t>AutoresCerrón Rojas, Waldemar José Palacios Huamán, Margot Cruz Mamani, Flavio ver más...</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06626/2023-CR</t>
+          <t>Proyecto de Ley 06642/2023-CR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 11 DE LA LEY 29816, LEY DE FORTALECIMIENTO DE LA SUNAT</t>
+          <t>TítuloLEY QUE FACULTA EL RETIRO VOLUNTARIO DE LOS FONDOS ADMINSTRADOS POR LAS AFP DE HASTA CUATRO (4) UIT</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -968,19 +968,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ProponenteCongreso-Actualización</t>
+          <t>ProponenteCongreso</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Autores</t>
+          <t>AutoresPariona Sinche, Alfredo</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06625/2023-CR</t>
+          <t>Proyecto de Ley 06641/2023-CR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CONSTRUCCIÓN DE LA CARRETERA SAN LORENZO-SARAMIRIZA (DATEM DEL MARAÑON-LORETO)</t>
+          <t>TítuloLEY QUE DEROGA EL DECRETO LEGISLATIVO 1589, DECRETO LEGISLATIVO QUE MODIFICA LOS ARTÍCULOS 283 Y 315 DEL CÓDIGO PENAL, CRIMINALIZANDO EL DERECHO CONSTITUCIONAL A LA PROTESTA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1000,19 +1000,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ProponenteCongreso-Actualización</t>
+          <t>ProponenteCongreso</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Autores</t>
+          <t>AutoresCortez Aguirre, Isabel Echeverría Rodríguez, Hamlet Bazán Narro, Sigrid Tesoro ver más...</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06624/2023-CR</t>
+          <t>Proyecto de Ley 06640/2023-CR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DISPONE MEJORES CONDICIONES PARA LA PROMOCIÓN DE ACCESO AL GLP PARA EL DEPARTAMENTO DEL CUSCO MEDIANTE LA AMPLIACIÓN DE LOS BENEFICIOS DEL FONDO DE INCLUSIÓN SOCIAL ENERGÉTICO - FISE</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA LA CREACIÓN DE LA PLATAFORMA NACIONAL DE GESTIÓN DE INFORMACIÓN DE ENFERMEDAS RARAS O HUÉRFANAS (ERH) PARA UN ADECUADO USO DE LOS RECURSOS DISPONIBLES DESTINADOS A LA ATENCIÓN DE PERSONAS QUE PADECEN ESTAS ENFERMEDADES</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AutoresSoto Reyes, Alejandro Camones Soriano, Lady Mercedes Julón Irigoín, Elva Edhit ver más...</t>
+          <t>AutoresGarcía Correa, Idelso Manuel Camones Soriano, Lady Mercedes Julón Irigoín, Elva Edhit ver más...</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06623/2023-CR</t>
+          <t>Proyecto de Ley 06639/2023-CR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL TEXTO ÚNICO ORDENADO DE LA LEY 29230, LEY QUE IMPULSA LA INVERSIÓN PÚBLICA REGIONAL Y LOCAL CON PARTICIPACIÓN DEL SECTOR PRIVADO, APROBADO MEDIANTE DECRETO SUPREMO 081-2022-EF, PROMOVIENDO LA INVERSIÓN PÚBLICA A NIVEL NACIONAL EN MATERIA DE SEGURIDAD CIUDADANA</t>
+          <t>TítuloLEY QUE CREA LA PLATAFORMA NACIONAL DE GESTIÓN DE INFORMACIÓN DE ENFERMEDADES RARAS O HUÉRFANAS (ERH) PARA UN ADECUADO USO DE LOS RECURSOS DISPONIBLES DESTINADOS A LA ATENCIÓN DE PERSONAS QUE PADECEN ESTAS ENFERMEDADES</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1069,14 +1069,14 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AutoresSoto Reyes, Alejandro Camones Soriano, Lady Mercedes Julón Irigoín, Elva Edhit ver más...</t>
+          <t>AutoresGarcía Correa, Idelso Manuel Trigozo Reátegui, Cheryl Julón Irigoín, Elva Edhit ver más...</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06622/2023-CR</t>
+          <t>Proyecto de Ley 06638/2023-CR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 275 DEL DECRETO LEGISLATIVO 635, CÓDIGO PENAL</t>
+          <t>TítuloLEY QUE RECONOCE DERECHOS DE LA NATURALEZA, LOS ECOSISTEMAS Y LAS ESPECIES</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1101,14 +1101,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AutoresSoto Reyes, Alejandro Camones Soriano, Lady Mercedes Julón Irigoín, Elva Edhit ver más...</t>
+          <t>AutoresRobles Araujo, Silvana Emperatriz Pariona Sinche, Alfredo Echeverría Rodríguez, Hamlet ver más...</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06621/2023-CR</t>
+          <t>Proyecto de Ley 06637/2023-CR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE INCORPORA EL NUMERAL 4 AL ARTÍCULO 95 DEL DECRETO LEGISLATIVO 957, CÓDIGO PROCESAL PENAL</t>
+          <t>TítuloLEY QUE ESTABLECE DE NECESIDAD PÚBLICA LA CONSTRUCCIÓN DEL INSTITUTO DE SALUD DEL NIÑO AMAZÓNICO QUE BRINDARÁ ATENCIÓN ESPECIALIZADA A LOS NIÑOS DE LA AMAZONÍA PERUANA DE LA MACRO REGIÓN ORIENTE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AutoresSoto Reyes, Alejandro Camones Soriano, Lady Mercedes Julón Irigoín, Elva Edhit ver más...</t>
+          <t>AutoresSaavedra Casternoque, Hitler Azurín Loayza, Alfredo Valer Pinto, Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06620/2023-CR</t>
+          <t>Proyecto de Ley 06636/2023-CR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TítuloLEY RESTABLECE EL COBRO DEL IMPUESTO SOBRE LA GANANCIA QUE OBTIENEN LAS EMPRESAS DEL SISTEMA FINANCIERO SOBRE LAS COMISIONES E INTERESES</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CREACIÓN, CONSTRUCCIÓN E IMPLEMENTACIÓN DEL HOSPITAL DE DESINTOXICACIÓN NIVEL II E Y LA IMPLEMENTACIÓN DEL LABORATORIO TOXICOLÓGICO, EN LA REGIÓN DE LORETO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1165,24 +1165,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AutoresCalle Lobatón, Digna Picón Quedo, Luis Raúl Paredes Castro, Francis Jhasmina ver más...</t>
+          <t>AutoresSaavedra Casternoque, Hitler Jerí Oré, José Enrique Azurín Loayza, Alfredo ver más...</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06619/2023-CR</t>
+          <t>Proyecto de Ley 06635/2023-CR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fecha de Presentación11/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROPONE INCORPORAR CONTENIDOS CURRICULARES DE ESTUDIOS SOBRE DERECHOS HUMANOS EN TODAS LAS ETAPAS, NIVELES Y MODALIDADES DEL SISTEMA EDUCATIVO PERUANO</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CONSTRUCCIÓN DE UNA VÍA ALTERNA A LA AUTOPISTA PANAMERICANA NORTE, PARA PERMITIR EL INGRESO Y SALIDA SIN PAGO DE PEAJE POR PARTE DE LOS USUARIOS QUE CIRCULAN DENTRO DE LOS DISTRITOS DE LIMA NORTE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1197,24 +1197,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AutoresRivas Chacara, Janet Milagros Agüero Gutiérrez, María Antonieta Palacios Huamán, Margot ver más...</t>
+          <t>AutoresSoto Palacios, Wilson Espinoza Vargas, Jhaec Darwin Vergara Mendoza, Elvis Hernán ver más...</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06618/2023-CR</t>
+          <t>Proyecto de Ley 06634/2023-CR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fecha de Presentación11/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TítuloPROYECTO DE LEY QUE DECLARA "CIUDAD HEROICA" A LA PROVINCIA DE CHUPACA, DEPARTAMENTO DE JUNÍN, POR SU CONTRIBUCIÓN A LA CAUSA DE LA INDEPENDENCIA NACIONAL</t>
+          <t>TítuloLEY QUE CREA LOS APORTES PREVISIONALES INDIVIDUALES CON CARGO AL IMPUESTO A LAS TRANSACCIONES FINANCIERAS POR EL USO DE BILLETERAS ELECTRÓNICAS</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1229,24 +1229,24 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AutoresJiménez Heredia, David Julio Moyano Delgado, Martha Lupe Huamán Coronado, Raúl ver más...</t>
+          <t>AutoresJulón Irigoín, Elva Edhit Trigozo Reátegui, Cheryl Camones Soriano, Lady Mercedes ver más...</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06617/2023-CR</t>
+          <t>Proyecto de Ley 06633/2023-CR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fecha de Presentación11/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ESTABLECE DISPOSICIONES PARA OPTIMIZAR LOS PROCESOS DE ALIMENTOS MODIFICANDO EL TEXTO ÚNICO ORDENADO DEL CÓDIGO PROCESAL CIVIL, RESOLUCIÓN MINISTERIAL 010-93-JUS Y EL CÓDIGO DE LOS NIÑOS Y ADOLESCENTES, LEY 27337</t>
+          <t>TítuloLEY QUE INCORPORA A LOS TRABAJADORES DEL PODER JUDICIAL BAJO EL RÉGIMEN LABORAL DEL DECRETO LEGISLATIVO N° 1057- CONTRATO ADMINISTRATIVO DE SERVICIOS — CAS AL RÉGIMEN LABORAL DEL DECRETO LEGISLATIVO N° 728</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1261,24 +1261,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AutoresYarrow Lumbreras, Norma Martina Bazán Calderón, Diego Alonso Fernando Tudela Gutiérrez, Adriana Josefina ver más...</t>
+          <t>AutoresCamones Soriano, Lady Mercedes Chiabra León, Roberto Enrique García Correa, Idelso Manuel ver más...</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06616/2023-CR</t>
+          <t>Proyecto de Ley 06632/2023-CR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fecha de Presentación11/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LOS ARTÍCULOS 104° Y 113° DE LA LEY 29571 - CÓDIGO DE PROTECCIÓN Y DEFENSA DEL CONSUMIDOR, RECONOCIENDO EL DERECHO DE LOS CONSUMIDORES A PERCIBIR EL 30% DE LAS MULTAS QUE IMPONGA EL INDECOPI POR INFRACCIÓN AL CÓDIGO DE PROTECCIÓN Y DEFENSA DEL CONSUMIDOR</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY 29284, LEY PARA EL DESARROLLO TURÍSTICO Y PROMOCIÓN DE LA INVERSIÓN EN INFRAESTRUCTURA TURÍSTICA EN EL DEPARTAMENTO DE TUMBES</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1293,24 +1293,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AutoresCordero Jon Tay, Luis Gustavo Acuña Peralta, Segundo Héctor Medina Minaya, Esdras Ricardo ver más...</t>
+          <t>AutoresZeta Chunga, Cruz Maria Olivos Martínez, Vivian Castillo Rivas, Eduardo Enrique ver más...</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06615/2023-CR</t>
+          <t>Proyecto de Ley 06631/2023-CR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fecha de Presentación11/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE AMPLÍA EL PLAZO DE LA LEY N° 30874-PARA CONTINUAR CON LA EVALUACIÓN, CALIFICACIÓN, FORMULACIÓN DE ACTAS Y EXPEDICIÓN DE RESOLUCIONES DE RECONOCIMIENTO A LOS MIEMBROS DE LAS FUERZAS ARMADAS, POLICÍA NACIONAL Y CIVILES QUE PARTICIPARON EN LOS CONFLICTOS ARMADOS CON EL ECUADOR EN LOS AÑOS 1978, 1981 Y 1995</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY N° 27806, LEY DE TRANSPARENCIA Y ACCESO A LA INFORMACIÓN PÚBLICA CON RELACIÓN AL PLAZO ADICIONAL PARA LA ENTREGA DE INFORMACIÓN</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1325,24 +1325,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AutoresMontoya Manrique, Jorge Carlos Ciccia Vásquez, Miguel Ángel Zeballos Aponte, Jorge Arturo ver más...</t>
+          <t>AutoresSánchez Palomino, Roberto Helbert Paredes Piqué, Susel Ana María Bazán Narro, Sigrid Tesoro ver más...</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06614/2023-CR</t>
+          <t>Proyecto de Ley 06630/2023-CR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fecha de Presentación11/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL CÓDIGO DE EJECUCIÓN PENAL APROBADO MEDIANTE DECRETO LEGISLATIVO 654 Y PUBLICADO MEDIANTE EL TEXTO ÚNICO ORDENADO DECRETO SUPREMO 003-2021-JUS</t>
+          <t>TítuloLEY QUE RECONOCE LOS DERECHOS SOCIOLABORALES EN EL RÉGIMEN LABORAL DEL DECRETO LEGISLATIVO 1057 (CAS)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1357,24 +1357,24 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AutoresMontoya Manrique, Jorge Carlos Padilla Romero, Javier Rommel Cueto Aservi, José Ernesto ver más...</t>
+          <t>AutoresCerrón Rojas, Waldemar José Palacios Huamán, Margot Cruz Mamani, Flavio ver más...</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06613/2023-CR</t>
+          <t>Proyecto de Ley 06629/2023-CR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fecha de Presentación11/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ELIMINA LA CONTRATACIÓN DIFERENCIADA Y OTORGA TRATO IGUALITARIO PARA EL INGRESO DE LOS DOCENTES A LA CARRERA PÚBLICA MAGISTERIAL Y AL ACCESO A LAS PLAZAS LABORALES</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY 29284, LEY PARA EL DESARROLLO TURÍSTICO Y PROMOCIÓN DE LA INVERSIÓN EN INFRAESTRUCTURA TURÍSTICA EN EL DEPARTAMENTO DE TUMBES</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1389,24 +1389,24 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
+          <t>AutoresVentura Ángel, Héctor José Alegría García, Arturo Juárez Gallegos, Carmen Patricia ver más...</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06612/2023-CR</t>
+          <t>Proyecto de Ley 06628/2023-CR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fecha de Presentación11/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TítuloPROYECTO DE LEY DE REFORMA CONSTITUCIONAL QUE AMPLÍA EL PLAZO DE DETENCIÓN PARA AUTORES O PARTÍCIPES DE LOS DELITOS DE HOMICIDIO CON DOLO Y CONTRA EL PATRIMONIO</t>
+          <t>TítuloLEY QUE DECLARA DE INTERES NACIONAL LA CONSTRUCCIÓN DE LA CARRETERA BOCAPANCASITAS- CAPITAN HOYLE EN EL DEPARTAMENTO DE TUMBES PARA FORTALECER EL TURISMO.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1421,24 +1421,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AutoresChirinos Venegas, Patricia Rosa Gonzales Delgado, Diana Carolina Cavero Alva, Alejandro Enrique ver más...</t>
+          <t>AutoresVentura Ángel, Héctor José Ramírez García, Tania Estefany Jiménez Heredia, David Julio ver más...</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06611/2023-CR</t>
+          <t>Proyecto de Ley 06627/2023-CR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fecha de Presentación11/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROMUEVE UN RÉGIMEN TRIBUTARIO ESPECIAL PARA LAS PELUQUERIAS Y CENTROS DE BELLEZA</t>
+          <t>TítuloLEY QUE ESTABLECE DE NECESIDAD PÚBLICA LA CONSTRUCCIÓN DEL INSTITUTO DEL NIÑO QUE BRINDARÁ ATENCIÓN ESPECIALIZADA A LA POBLACIÓN DE LA MACRO REGION ORIENTE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1448,29 +1448,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ProponenteCongreso</t>
+          <t>ProponenteCongreso-Actualización</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AutoresCastillo Rivas, Eduardo Enrique Lizarzaburu Lizarzaburu, Juan Carlos Martin Olivos Martínez, Vivian ver más...</t>
+          <t>Autores</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06610/2023-CR</t>
+          <t>Proyecto de Ley 06626/2023-CR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fecha de Presentación11/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TítuloPROYECTO DE LEY QUE AMPLIA LA VIGENCIA DE LA LEY 31912, LEY QUE APRUEBA CRÉDITOS SUPLEMENTARIOS PARA EL FINANCIAMIENTO DE MAYORES GASTOS ASOCIADOS A LA REACTIVACIÓN ECONÓMICA, LA RESPUESTA ANTE LA EMERGENCIA Y EL PELIGRO INMINENTE POR LA OCURRENCIA DEL FENÓMENO EL NIÑO PARA EL AÑO 2023 Y DICTA OTRAS MEDIDAS Y SU MODIFICATORIA, HASTA EL 30 DE MARZO DE 2024, CON LA FINALIDAD DE QUE SEAN ATENDIDOS LOS PEDIDOS Y DEMANDAS DE LOS GOBIERNOS REGIONALES Y LOCALES DE NUESTRO PAÍS</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 11 DE LA LEY 29816, LEY DE FORTALECIMIENTO DE LA SUNAT</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1480,29 +1480,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ProponenteCongreso</t>
+          <t>ProponenteCongreso-Actualización</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AutoresMontalvo Cubas, Segundo Toribio Palacios Huamán, Margot Rivas Chacara, Janet Milagros ver más...</t>
+          <t>Autores</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06609/2023-CR</t>
+          <t>Proyecto de Ley 06625/2023-CR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fecha de Presentación11/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DEROGA EL DECRETO LEGISLATIVO 1589, DECRETO LEGISLATIVO QUE MODIFICA LOS ARTÍCULOS 283 Y 315 DEL CÓDIGO PENAL, CRIMINALIZANDO EL DERECHO CONSTITUCIONAL A LA PROTESTA</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CONSTRUCCIÓN DE LA CARRETERA SAN LORENZO-SARAMIRIZA (DATEM DEL MARAÑON-LORETO)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1512,29 +1512,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ProponenteCongreso</t>
+          <t>ProponenteCongreso-Actualización</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AutoresCortez Aguirre, Isabel Bazán Narro, Sigrid Tesoro Bermejo Rojas, Guillermo ver más...</t>
+          <t>Autores</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06608/2023-CR</t>
+          <t>Proyecto de Ley 06624/2023-CR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DEROGA EL DECRETO SUPREMO N° 136-2023-PCM QUE DECLARA DIA DE LA INSTITUCIONALIDAD DEL ESTADO DE DERECHO Y DE LA DEFENSA DE LA DEMOCRACIA</t>
+          <t>TítuloLEY QUE DISPONE MEJORES CONDICIONES PARA LA PROMOCIÓN DE ACCESO AL GLP PARA EL DEPARTAMENTO DEL CUSCO MEDIANTE LA AMPLIACIÓN DE LOS BENEFICIOS DEL FONDO DE INCLUSIÓN SOCIAL ENERGÉTICO - FISE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1549,24 +1549,24 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AutoresLuque Ibarra, Ruth Sánchez Palomino, Roberto Helbert Bazán Narro, Sigrid Tesoro ver más...</t>
+          <t>AutoresSoto Reyes, Alejandro Camones Soriano, Lady Mercedes Julón Irigoín, Elva Edhit ver más...</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06607/2023-CR</t>
+          <t>Proyecto de Ley 06623/2023-CR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE CREA EL REGISTRO DE MAQUINARIA PESADA A CARGO DEL MINISTERIO DE ENERGÍA Y MINAS EN LAS ZONAS MINERAS DE LOS DEPARTAMENTOS DE MADRE DE DIOS, UCAYALI Y PUNO</t>
+          <t>TítuloLEY QUE MODIFICA EL TEXTO ÚNICO ORDENADO DE LA LEY 29230, LEY QUE IMPULSA LA INVERSIÓN PÚBLICA REGIONAL Y LOCAL CON PARTICIPACIÓN DEL SECTOR PRIVADO, APROBADO MEDIANTE DECRETO SUPREMO 081-2022-EF, PROMOVIENDO LA INVERSIÓN PÚBLICA A NIVEL NACIONAL EN MATERIA DE SEGURIDAD CIUDADANA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1581,24 +1581,24 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>AutoresWilliams Zapata, José Daniel Córdova Lobatón, María Jessica Amuruz Dulanto, Yessica Rosselli ver más...</t>
+          <t>AutoresSoto Reyes, Alejandro Camones Soriano, Lady Mercedes Julón Irigoín, Elva Edhit ver más...</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06606/2023-CR</t>
+          <t>Proyecto de Ley 06622/2023-CR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FORTALECE LA COMISIÓN MULTISECTORIAL DE NATURALEZA PERMANENTE CON EL OBJETO DE REALIZAR EL SEGUIMIENTO AL DESARROLLO SOCIAL Y ECONÓMICO, FORMALIZACIÓN DE LA MINERÍA Y RECUPERACIÓN DEL MEDIO AMBIENTE EN LOS DEPARTAMENTOS DE MADRE DE DIOS, UCAYALI Y PUNO</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 275 DEL DECRETO LEGISLATIVO 635, CÓDIGO PENAL</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1613,24 +1613,24 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>AutoresWilliams Zapata, José Daniel Córdova Lobatón, María Jessica Cavero Alva, Alejandro Enrique ver más...</t>
+          <t>AutoresSoto Reyes, Alejandro Camones Soriano, Lady Mercedes Julón Irigoín, Elva Edhit ver más...</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06605/2023-CR</t>
+          <t>Proyecto de Ley 06621/2023-CR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE PRIORIDAD NACIONAL Y ATENCIÓN PREFERENTE EL DESARROLLO ECONÓMICO, SOCIAL Y LA PACIFICACIÓN DEL VALLE DE LOS RÍOS APURÍMAC, ENE Y MANTARO</t>
+          <t>TítuloLEY QUE INCORPORA EL NUMERAL 4 AL ARTÍCULO 95 DEL DECRETO LEGISLATIVO 957, CÓDIGO PROCESAL PENAL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1645,24 +1645,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AutoresFlores Ramírez, Alex Randu Quito Sarmiento, Bernardo Jaime Pariona Sinche, Alfredo ver más...</t>
+          <t>AutoresSoto Reyes, Alejandro Camones Soriano, Lady Mercedes Julón Irigoín, Elva Edhit ver más...</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06604/2023-CR</t>
+          <t>Proyecto de Ley 06620/2023-CR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación12/12/2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE INCORPORA AL DISTRITO DE UNIÓN PROGRESO Y ANCHIHUAY A LA LEY N°27037, LEY DE PROMOCIÓN DE LA INVERSIÓN EN LA AMAZON ÍA</t>
+          <t>TítuloLEY RESTABLECE EL COBRO DEL IMPUESTO SOBRE LA GANANCIA QUE OBTIENEN LAS EMPRESAS DEL SISTEMA FINANCIERO SOBRE LAS COMISIONES E INTERESES</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1677,24 +1677,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AutoresFlores Ramírez, Alex Randu Quito Sarmiento, Bernardo Jaime Pariona Sinche, Alfredo ver más...</t>
+          <t>AutoresCalle Lobatón, Digna Picón Quedo, Luis Raúl Paredes Castro, Francis Jhasmina ver más...</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06603/2023-CR</t>
+          <t>Proyecto de Ley 06619/2023-CR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación11/12/2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY 27972 LEY ORGÁNICA DE MUNICIPALIDADES Y OPTIMIZA LAS COMPETENCIAS INSTITUCIONALES DE LOS CENTROS POBLADOS</t>
+          <t>TítuloLEY QUE PROPONE INCORPORAR CONTENIDOS CURRICULARES DE ESTUDIOS SOBRE DERECHOS HUMANOS EN TODAS LAS ETAPAS, NIVELES Y MODALIDADES DEL SISTEMA EDUCATIVO PERUANO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1709,24 +1709,24 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>AutoresFlores Ramírez, Alex Randu Quito Sarmiento, Bernardo Jaime Pariona Sinche, Alfredo ver más...</t>
+          <t>AutoresRivas Chacara, Janet Milagros Agüero Gutiérrez, María Antonieta Palacios Huamán, Margot ver más...</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06602/2023-CR</t>
+          <t>Proyecto de Ley 06618/2023-CR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación11/12/2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA EL 7 DE DICIEMBRE COMO DÍA NACIONAL DE LOS MÁRTIRES DE LA DEMOCRACIA Y LA LUCHA SOCIAL</t>
+          <t>TítuloPROYECTO DE LEY QUE DECLARA "CIUDAD HEROICA" A LA PROVINCIA DE CHUPACA, DEPARTAMENTO DE JUNÍN, POR SU CONTRIBUCIÓN A LA CAUSA DE LA INDEPENDENCIA NACIONAL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1741,24 +1741,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>AutoresBellido Ugarte, Guido Varas Meléndez, Elías Marcial Coayla Juárez, Jorge Samuel</t>
+          <t>AutoresJiménez Heredia, David Julio Moyano Delgado, Martha Lupe Huamán Coronado, Raúl ver más...</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06601/2023-CR</t>
+          <t>Proyecto de Ley 06617/2023-CR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación11/12/2023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CONSTRUCCIÓN E IMPLEMENTACIÓN DEL ESTADIO VÍCTOR MONTOYA SEGURA, UBICADO EN LA PROVINCIA DE JAÉN DEPARTAMENTO DE CAJAMARCA</t>
+          <t>TítuloLEY QUE ESTABLECE DISPOSICIONES PARA OPTIMIZAR LOS PROCESOS DE ALIMENTOS MODIFICANDO EL TEXTO ÚNICO ORDENADO DEL CÓDIGO PROCESAL CIVIL, RESOLUCIÓN MINISTERIAL 010-93-JUS Y EL CÓDIGO DE LOS NIÑOS Y ADOLESCENTES, LEY 27337</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1773,24 +1773,24 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>AutoresMonteza Facho, Silvia María Paredes Fonseca, Karol Ivett Mori Celis, Juan Carlos ver más...</t>
+          <t>AutoresYarrow Lumbreras, Norma Martina Bazán Calderón, Diego Alonso Fernando Tudela Gutiérrez, Adriana Josefina ver más...</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06600/2023-CR</t>
+          <t>Proyecto de Ley 06616/2023-CR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación11/12/2023</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE GARANTIZA EL ACCESO Y LA CALIDAD DEL AGUA POTABLE</t>
+          <t>TítuloLEY QUE MODIFICA LOS ARTÍCULOS 104° Y 113° DE LA LEY 29571 - CÓDIGO DE PROTECCIÓN Y DEFENSA DEL CONSUMIDOR, RECONOCIENDO EL DERECHO DE LOS CONSUMIDORES A PERCIBIR EL 30% DE LAS MULTAS QUE IMPONGA EL INDECOPI POR INFRACCIÓN AL CÓDIGO DE PROTECCIÓN Y DEFENSA DEL CONSUMIDOR</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1805,24 +1805,24 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>AutoresPortero López, Hilda Marleny Soto Palacios, Wilson Espinoza Vargas, Jhaec Darwin ver más...</t>
+          <t>AutoresCordero Jon Tay, Luis Gustavo Acuña Peralta, Segundo Héctor Medina Minaya, Esdras Ricardo ver más...</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06599/2023-CR</t>
+          <t>Proyecto de Ley 06615/2023-CR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación11/12/2023</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL LA CREACIÓN DE LA UNIVERSIDAD NACIONAL DE TALARA</t>
+          <t>TítuloLEY QUE AMPLÍA EL PLAZO DE LA LEY N° 30874-PARA CONTINUAR CON LA EVALUACIÓN, CALIFICACIÓN, FORMULACIÓN DE ACTAS Y EXPEDICIÓN DE RESOLUCIONES DE RECONOCIMIENTO A LOS MIEMBROS DE LAS FUERZAS ARMADAS, POLICÍA NACIONAL Y CIVILES QUE PARTICIPARON EN LOS CONFLICTOS ARMADOS CON EL ECUADOR EN LOS AÑOS 1978, 1981 Y 1995</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1837,24 +1837,24 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>AutoresJuárez Calle, Heidy Lisbeth Paredes Castro, Francis Jhasmina Zeballos Madariaga, Carlos Javier ver más...</t>
+          <t>AutoresMontoya Manrique, Jorge Carlos Ciccia Vásquez, Miguel Ángel Zeballos Aponte, Jorge Arturo ver más...</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06598/2023-CR</t>
+          <t>Proyecto de Ley 06614/2023-CR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación11/12/2023</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE CREA EL REGISTRO DE PERSONAS AFECTADAS POR EL DERRAME DE HIDROCARBUROS</t>
+          <t>TítuloLEY QUE MODIFICA EL CÓDIGO DE EJECUCIÓN PENAL APROBADO MEDIANTE DECRETO LEGISLATIVO 654 Y PUBLICADO MEDIANTE EL TEXTO ÚNICO ORDENADO DECRETO SUPREMO 003-2021-JUS</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1869,24 +1869,24 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AutoresSalhuana Cavides, Eduardo Chiabra León, Roberto Enrique Trigozo Reátegui, Cheryl ver más...</t>
+          <t>AutoresMontoya Manrique, Jorge Carlos Padilla Romero, Javier Rommel Cueto Aservi, José Ernesto ver más...</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06597/2023-CR</t>
+          <t>Proyecto de Ley 06613/2023-CR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación11/12/2023</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TítuloLEY DE LUCHA CONTRA LA INSEGURIDAD CIUDADANA QUE PLANTEA LA AMPLIACIÓN DEL TIEMPO DEL DELITO DE FLAGRANCIA</t>
+          <t>TítuloLEY QUE ELIMINA LA CONTRATACIÓN DIFERENCIADA Y OTORGA TRATO IGUALITARIO PARA EL INGRESO DE LOS DOCENTES A LA CARRERA PÚBLICA MAGISTERIAL Y AL ACCESO A LAS PLAZAS LABORALES</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>AutoresOlivos Martínez, Vivian Chacón Trujillo, Nilza Merly Revilla Villanueva, César Manuel ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06596/2023-CR</t>
+          <t>Proyecto de Ley 06612/2023-CR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación11/12/2023</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL EL RECONOCIMIENTO COMO PATRIMONIO CULTURAL DE LA NACIÓN A LA DANZA LOS VIAJEROS DE CHANTA UMACA DEL DISTRITO DE ANDARAPA, PROVINCIA DE ANDAHUAYLAS DEL DEPARTAMENTO DE APURÍMAC</t>
+          <t>TítuloPROYECTO DE LEY DE REFORMA CONSTITUCIONAL QUE AMPLÍA EL PLAZO DE DETENCIÓN PARA AUTORES O PARTÍCIPES DE LOS DELITOS DE HOMICIDIO CON DOLO Y CONTRA EL PATRIMONIO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1933,24 +1933,24 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>AutoresTaipe Coronado, María Elizabeth Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
+          <t>AutoresChirinos Venegas, Patricia Rosa Gonzales Delgado, Diana Carolina Cavero Alva, Alejandro Enrique ver más...</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06595/2023-CR</t>
+          <t>Proyecto de Ley 06611/2023-CR</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación11/12/2023</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE CREA EL REGISTRO DE RESIDENTES DISTRITALES Y DE CENTROS POBLADOS EN EL MINISTERIO DE CULTURA PARA LA PROMOCIÓN CULTURAL</t>
+          <t>TítuloLEY QUE PROMUEVE UN RÉGIMEN TRIBUTARIO ESPECIAL PARA LAS PELUQUERIAS Y CENTROS DE BELLEZA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1965,24 +1965,24 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AutoresTaipe Coronado, María Elizabeth Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
+          <t>AutoresCastillo Rivas, Eduardo Enrique Lizarzaburu Lizarzaburu, Juan Carlos Martin Olivos Martínez, Vivian ver más...</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06594/2023-CR</t>
+          <t>Proyecto de Ley 06610/2023-CR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación11/12/2023</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LOS ARTÍCULOS 52 Y 62 DEL DECRETO LEGISLATIVO N° 635 DEL CODIGO PENAL A EFECTO DE REGULAR EXCEPCIONES EN LOS CASOS DE LOS DELITOS DE AGRESIONES EN CONTRA DE LA MUJERES O INTEGRANTES DEL GRUPO FAMILIAR Y POR EL DELITO DE LESIONES</t>
+          <t>TítuloPROYECTO DE LEY QUE AMPLIA LA VIGENCIA DE LA LEY 31912, LEY QUE APRUEBA CRÉDITOS SUPLEMENTARIOS PARA EL FINANCIAMIENTO DE MAYORES GASTOS ASOCIADOS A LA REACTIVACIÓN ECONÓMICA, LA RESPUESTA ANTE LA EMERGENCIA Y EL PELIGRO INMINENTE POR LA OCURRENCIA DEL FENÓMENO EL NIÑO PARA EL AÑO 2023 Y DICTA OTRAS MEDIDAS Y SU MODIFICATORIA, HASTA EL 30 DE MARZO DE 2024, CON LA FINALIDAD DE QUE SEAN ATENDIDOS LOS PEDIDOS Y DEMANDAS DE LOS GOBIERNOS REGIONALES Y LOCALES DE NUESTRO PAÍS</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1997,24 +1997,24 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>AutoresAlva Prieto, María del Carmen Arriola Tueros, José Alberto Mori Celis, Juan Carlos ver más...</t>
+          <t>AutoresMontalvo Cubas, Segundo Toribio Palacios Huamán, Margot Rivas Chacara, Janet Milagros ver más...</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06593/2023-CR</t>
+          <t>Proyecto de Ley 06609/2023-CR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fecha de Presentación06/12/2023</t>
+          <t>Fecha de Presentación11/12/2023</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CONSTRUCCIÓN DE TELEFÉRICOS Y SERVICIOS COMPLEMENTARIOS EN CHIMBOTE, CALLEJÓN DE HUAYLAS, ZONA DE LOS CONCHUCOS Y OTROS SECTORES CON POTENCIAL TURÍSTICO EN ANCASH</t>
+          <t>TítuloLEY QUE DEROGA EL DECRETO LEGISLATIVO 1589, DECRETO LEGISLATIVO QUE MODIFICA LOS ARTÍCULOS 283 Y 315 DEL CÓDIGO PENAL, CRIMINALIZANDO EL DERECHO CONSTITUCIONAL A LA PROTESTA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2029,14 +2029,14 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>AutoresCamones Soriano, Lady Mercedes Salhuana Cavides, Eduardo Acuña Peralta, María Grimaneza ver más...</t>
+          <t>AutoresCortez Aguirre, Isabel Bazán Narro, Sigrid Tesoro Bermejo Rojas, Guillermo ver más...</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06592/2023-CR</t>
+          <t>Proyecto de Ley 06608/2023-CR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE EXCLUYE A ESSALUD DE LOS ALCANCES DE FONAFE</t>
+          <t>TítuloLEY QUE DEROGA EL DECRETO SUPREMO N° 136-2023-PCM QUE DECLARA DIA DE LA INSTITUCIONALIDAD DEL ESTADO DE DERECHO Y DE LA DEFENSA DE LA DEMOCRACIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>AutoresBurgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy Acuña Peralta, Segundo Héctor ver más...</t>
+          <t>AutoresLuque Ibarra, Ruth Sánchez Palomino, Roberto Helbert Bazán Narro, Sigrid Tesoro ver más...</t>
         </is>
       </c>
     </row>
